--- a/Excel/043_CONT.SE.xlsx
+++ b/Excel/043_CONT.SE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55119\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4B4CC7-A263-4B74-BC2B-9C245C9F8B0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F97BC26-53E3-4BD8-960F-C3DAF92551B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="809" xr2:uid="{2E65B82F-5866-47B8-BB74-66991D6C79DA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="809" firstSheet="5" activeTab="9" xr2:uid="{2E65B82F-5866-47B8-BB74-66991D6C79DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Professor exemplo 1" sheetId="5" r:id="rId1"/>
@@ -26,11 +26,11 @@
     <sheet name="Aluno Desafio 2" sheetId="28" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Aluno Desafio'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Aluno Desafio'!$A$4:$C$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Aluno Desafio 2'!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Aluno exemplo 1'!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Aluno exemplo 2'!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Aluno exemplo 3'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Aluno exemplo 1'!$A$4:$C$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Aluno exemplo 2'!$A$4:$D$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Aluno exemplo 3'!$A$4:$C$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Professor Desafio'!$A$4:$C$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Professor Desafio 2'!$A$6:$E$80</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Professor exemplo 1'!$A$4:$C$16</definedName>
@@ -39,7 +39,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId12"/>
+    <pivotCache cacheId="0" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -629,7 +629,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1296,7 +1298,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4AB7C40D-A644-45D5-AEF8-18D9C666C9E6}" name="Tabela dinâmica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4AB7C40D-A644-45D5-AEF8-18D9C666C9E6}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:P14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -1806,25 +1808,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981B2EF9-5950-4CCB-BA26-E4C506AD0A27}">
   <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="94" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="94" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="26" style="1" customWidth="1"/>
     <col min="2" max="2" width="39" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="29.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.53515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="29.765625" customWidth="1"/>
     <col min="6" max="6" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" ht="28.3" x14ac:dyDescent="0.75">
       <c r="A2" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="23.15" x14ac:dyDescent="0.6">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1839,7 +1841,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:8" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A5" s="30" t="s">
         <v>13</v>
       </c>
@@ -1855,7 +1857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A6" s="30" t="s">
         <v>14</v>
       </c>
@@ -1869,7 +1871,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:8" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A7" s="30" t="s">
         <v>14</v>
       </c>
@@ -1886,7 +1888,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:8" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:8" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A8" s="30"/>
       <c r="B8" s="30" t="s">
         <v>2</v>
@@ -1902,7 +1904,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:8" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A9" s="30" t="s">
         <v>16</v>
       </c>
@@ -1917,7 +1919,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:8" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A10" s="30" t="s">
         <v>17</v>
       </c>
@@ -1934,7 +1936,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:8" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:8" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A11" s="30" t="s">
         <v>18</v>
       </c>
@@ -1953,7 +1955,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A12" s="30"/>
       <c r="B12" s="30" t="s">
         <v>6</v>
@@ -1967,7 +1969,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A13" s="30" t="s">
         <v>20</v>
       </c>
@@ -1985,7 +1987,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:8" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A14" s="30" t="s">
         <v>21</v>
       </c>
@@ -2004,7 +2006,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A15" s="30" t="s">
         <v>22</v>
       </c>
@@ -2020,7 +2022,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A16" s="30" t="s">
         <v>23</v>
       </c>
@@ -2036,7 +2038,7 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="5:5" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="17" spans="5:5" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="E17" s="29">
         <f>COUNTIF(A5:A16,"&lt;&gt;"&amp;"")</f>
         <v>10</v>
@@ -2052,26 +2054,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7ADD713-B3FA-449E-86BA-B800A6646892}">
   <dimension ref="A2:G17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="39" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="29.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.53515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.53515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="29.765625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" ht="28.3" x14ac:dyDescent="0.75">
       <c r="A2" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="23.15" x14ac:dyDescent="0.6">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -2086,7 +2088,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:7" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A5" s="30" t="s">
         <v>47</v>
       </c>
@@ -2097,9 +2099,12 @@
         <v>2800</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="29"/>
-    </row>
-    <row r="6" spans="1:7" ht="25.8" x14ac:dyDescent="0.45">
+      <c r="E5" s="29">
+        <f>COUNTIF(A5:A16,"Erica Antunes")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A6" s="30" t="s">
         <v>1</v>
       </c>
@@ -2112,7 +2117,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:7" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A7" s="30" t="s">
         <v>48</v>
       </c>
@@ -2127,7 +2132,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:7" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A8" s="30" t="s">
         <v>2</v>
       </c>
@@ -2138,9 +2143,12 @@
         <v>3000</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="29"/>
-    </row>
-    <row r="9" spans="1:7" ht="25.8" x14ac:dyDescent="0.45">
+      <c r="E8" s="29">
+        <f>COUNTIF(A5:A16,"*"&amp;"Erica"&amp;"*")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A9" s="30" t="s">
         <v>3</v>
       </c>
@@ -2153,7 +2161,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:7" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A10" s="30" t="s">
         <v>4</v>
       </c>
@@ -2168,7 +2176,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:7" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A11" s="30" t="s">
         <v>53</v>
       </c>
@@ -2179,9 +2187,12 @@
         <v>2000</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="29"/>
-    </row>
-    <row r="12" spans="1:7" ht="25.8" x14ac:dyDescent="0.4">
+      <c r="E11" s="29">
+        <f>COUNTIF(A5:A16,"Erica*")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="26.15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="30" t="s">
         <v>50</v>
       </c>
@@ -2193,7 +2204,7 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A13" s="30" t="s">
         <v>49</v>
       </c>
@@ -2208,7 +2219,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A14" s="30" t="s">
         <v>8</v>
       </c>
@@ -2229,7 +2240,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:7" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A15" s="30" t="s">
         <v>9</v>
       </c>
@@ -2243,10 +2254,16 @@
       <c r="E15" s="33">
         <v>23</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" spans="1:7" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="F15" s="29">
+        <f>COUNTIFS($B$5:$B$16,E15)</f>
+        <v>3</v>
+      </c>
+      <c r="G15" s="29">
+        <f>COUNTIFS($A$5:$A$16,"*Erica*",$B$5:$B$16,E15)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A16" s="30" t="s">
         <v>10</v>
       </c>
@@ -2260,15 +2277,27 @@
       <c r="E16" s="33">
         <v>26</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-    </row>
-    <row r="17" spans="5:7" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="F16" s="29">
+        <f t="shared" ref="F16:F17" si="0">COUNTIFS($B$5:$B$16,E16)</f>
+        <v>4</v>
+      </c>
+      <c r="G16" s="29">
+        <f t="shared" ref="G16:G17" si="1">COUNTIFS($A$5:$A$16,"*Erica*",$B$5:$B$16,E16)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="E17" s="33">
         <v>30</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
+      <c r="F17" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G17" s="29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2284,51 +2313,51 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="37.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="37.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.84375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.84375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.84375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.84375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.07421875" customWidth="1"/>
+    <col min="7" max="7" width="23.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.84375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.53515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="19.07421875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.84375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.4609375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.07421875" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="19.07421875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.3046875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="31" bestFit="1" customWidth="1"/>
-    <col min="21" max="25" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="25" width="19.07421875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:26" ht="23.15" x14ac:dyDescent="0.6">
       <c r="H2" s="28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:26" ht="28.3" x14ac:dyDescent="0.75">
       <c r="A3" s="16"/>
       <c r="B3" s="16" t="s">
         <v>41</v>
       </c>
       <c r="H3" s="28"/>
     </row>
-    <row r="4" spans="1:26" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:26" ht="28.3" x14ac:dyDescent="0.75">
       <c r="A4" s="16"/>
       <c r="H4" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" ht="23.15" x14ac:dyDescent="0.6">
       <c r="H5" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>58</v>
       </c>
@@ -2347,7 +2376,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A7" s="20" t="s">
         <v>61</v>
       </c>
@@ -2365,7 +2394,7 @@
       </c>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A8" s="20" t="s">
         <v>63</v>
       </c>
@@ -2439,7 +2468,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A9" s="20" t="s">
         <v>82</v>
       </c>
@@ -2481,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A10" s="20" t="s">
         <v>83</v>
       </c>
@@ -2523,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A11" s="20" t="s">
         <v>84</v>
       </c>
@@ -2565,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A12" s="20" t="s">
         <v>85</v>
       </c>
@@ -2607,7 +2636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A13" s="20" t="s">
         <v>61</v>
       </c>
@@ -2649,7 +2678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A14" s="20" t="s">
         <v>63</v>
       </c>
@@ -2691,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A15" s="20" t="s">
         <v>82</v>
       </c>
@@ -2733,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A16" s="20" t="s">
         <v>83</v>
       </c>
@@ -2775,7 +2804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A17" s="20" t="s">
         <v>61</v>
       </c>
@@ -2871,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A18" s="20" t="s">
         <v>63</v>
       </c>
@@ -2888,7 +2917,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A19" s="20" t="s">
         <v>82</v>
       </c>
@@ -2905,7 +2934,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A20" s="20" t="s">
         <v>83</v>
       </c>
@@ -2922,7 +2951,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A21" s="20" t="s">
         <v>63</v>
       </c>
@@ -2939,7 +2968,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A22" s="20" t="s">
         <v>87</v>
       </c>
@@ -2956,7 +2985,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A23" s="20" t="s">
         <v>86</v>
       </c>
@@ -2973,7 +3002,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A24" s="20" t="s">
         <v>63</v>
       </c>
@@ -2990,7 +3019,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A25" s="20" t="s">
         <v>82</v>
       </c>
@@ -3007,7 +3036,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A26" s="20" t="s">
         <v>61</v>
       </c>
@@ -3024,7 +3053,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A27" s="20" t="s">
         <v>85</v>
       </c>
@@ -3041,7 +3070,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A28" s="20" t="s">
         <v>61</v>
       </c>
@@ -3058,7 +3087,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A29" s="20" t="s">
         <v>63</v>
       </c>
@@ -3075,7 +3104,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A30" s="20" t="s">
         <v>82</v>
       </c>
@@ -3092,7 +3121,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A31" s="20" t="s">
         <v>83</v>
       </c>
@@ -3109,7 +3138,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A32" s="20" t="s">
         <v>63</v>
       </c>
@@ -3126,7 +3155,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A33" s="20" t="s">
         <v>82</v>
       </c>
@@ -3143,7 +3172,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A34" s="20" t="s">
         <v>83</v>
       </c>
@@ -3160,7 +3189,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A35" s="20" t="s">
         <v>87</v>
       </c>
@@ -3177,7 +3206,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A36" s="20" t="s">
         <v>87</v>
       </c>
@@ -3194,7 +3223,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A37" s="20" t="s">
         <v>86</v>
       </c>
@@ -3211,7 +3240,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A38" s="20" t="s">
         <v>86</v>
       </c>
@@ -3228,7 +3257,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A39" s="20" t="s">
         <v>85</v>
       </c>
@@ -3245,7 +3274,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A40" s="20" t="s">
         <v>85</v>
       </c>
@@ -3262,7 +3291,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A41" s="20" t="s">
         <v>85</v>
       </c>
@@ -3279,7 +3308,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A42" s="20" t="s">
         <v>84</v>
       </c>
@@ -3296,7 +3325,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A43" s="20" t="s">
         <v>84</v>
       </c>
@@ -3313,7 +3342,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A44" s="20" t="s">
         <v>61</v>
       </c>
@@ -3330,7 +3359,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A45" s="20" t="s">
         <v>63</v>
       </c>
@@ -3347,7 +3376,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A46" s="20" t="s">
         <v>82</v>
       </c>
@@ -3364,7 +3393,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A47" s="20" t="s">
         <v>83</v>
       </c>
@@ -3381,7 +3410,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A48" s="20" t="s">
         <v>84</v>
       </c>
@@ -3398,7 +3427,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A49" s="20" t="s">
         <v>85</v>
       </c>
@@ -3415,7 +3444,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A50" s="20" t="s">
         <v>61</v>
       </c>
@@ -3432,7 +3461,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A51" s="20" t="s">
         <v>63</v>
       </c>
@@ -3449,7 +3478,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A52" s="20" t="s">
         <v>82</v>
       </c>
@@ -3466,7 +3495,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A53" s="20" t="s">
         <v>83</v>
       </c>
@@ -3483,7 +3512,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A54" s="20" t="s">
         <v>61</v>
       </c>
@@ -3500,7 +3529,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A55" s="20" t="s">
         <v>63</v>
       </c>
@@ -3517,7 +3546,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A56" s="20" t="s">
         <v>82</v>
       </c>
@@ -3534,7 +3563,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A57" s="20" t="s">
         <v>83</v>
       </c>
@@ -3551,7 +3580,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A58" s="20" t="s">
         <v>63</v>
       </c>
@@ -3568,7 +3597,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A59" s="20" t="s">
         <v>87</v>
       </c>
@@ -3585,7 +3614,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A60" s="20" t="s">
         <v>86</v>
       </c>
@@ -3602,7 +3631,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A61" s="20" t="s">
         <v>63</v>
       </c>
@@ -3619,7 +3648,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A62" s="20" t="s">
         <v>82</v>
       </c>
@@ -3636,7 +3665,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A63" s="20" t="s">
         <v>61</v>
       </c>
@@ -3653,7 +3682,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A64" s="20" t="s">
         <v>85</v>
       </c>
@@ -3670,7 +3699,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A65" s="20" t="s">
         <v>61</v>
       </c>
@@ -3687,7 +3716,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A66" s="20" t="s">
         <v>63</v>
       </c>
@@ -3704,7 +3733,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A67" s="20" t="s">
         <v>82</v>
       </c>
@@ -3721,7 +3750,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A68" s="20" t="s">
         <v>83</v>
       </c>
@@ -3738,7 +3767,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A69" s="20" t="s">
         <v>63</v>
       </c>
@@ -3755,7 +3784,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A70" s="20" t="s">
         <v>82</v>
       </c>
@@ -3772,7 +3801,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A71" s="20" t="s">
         <v>83</v>
       </c>
@@ -3789,7 +3818,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A72" s="20" t="s">
         <v>87</v>
       </c>
@@ -3806,7 +3835,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A73" s="20" t="s">
         <v>87</v>
       </c>
@@ -3823,7 +3852,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A74" s="20" t="s">
         <v>86</v>
       </c>
@@ -3840,7 +3869,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A75" s="20" t="s">
         <v>86</v>
       </c>
@@ -3857,7 +3886,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A76" s="20" t="s">
         <v>85</v>
       </c>
@@ -3874,7 +3903,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A77" s="20" t="s">
         <v>85</v>
       </c>
@@ -3891,7 +3920,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A78" s="20" t="s">
         <v>85</v>
       </c>
@@ -3908,7 +3937,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A79" s="20" t="s">
         <v>84</v>
       </c>
@@ -3925,7 +3954,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A80" s="20" t="s">
         <v>84</v>
       </c>
@@ -3956,22 +3985,22 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="26" style="1" customWidth="1"/>
     <col min="2" max="2" width="39" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="29.77734375" customWidth="1"/>
+    <col min="3" max="3" width="25.23046875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="18.53515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="29.765625" customWidth="1"/>
     <col min="7" max="7" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="28.3" x14ac:dyDescent="0.75">
       <c r="A2" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="23.15" x14ac:dyDescent="0.6">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -3989,7 +4018,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:9" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -4009,7 +4038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="23.15" x14ac:dyDescent="0.6">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -4026,7 +4055,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="23.15" x14ac:dyDescent="0.6">
       <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
@@ -4046,7 +4075,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:9" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -4068,7 +4097,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="23.15" x14ac:dyDescent="0.6">
       <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
@@ -4086,7 +4115,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="23.15" x14ac:dyDescent="0.6">
       <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
@@ -4106,7 +4135,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:9" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
@@ -4129,7 +4158,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="23.15" x14ac:dyDescent="0.6">
       <c r="A12" s="9" t="s">
         <v>19</v>
       </c>
@@ -4148,7 +4177,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="23.15" x14ac:dyDescent="0.6">
       <c r="A13" s="9" t="s">
         <v>20</v>
       </c>
@@ -4167,7 +4196,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="23.15" x14ac:dyDescent="0.6">
       <c r="A14" s="9" t="s">
         <v>21</v>
       </c>
@@ -4186,7 +4215,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="23.15" x14ac:dyDescent="0.6">
       <c r="A15" s="9" t="s">
         <v>22</v>
       </c>
@@ -4205,7 +4234,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="23.15" x14ac:dyDescent="0.6">
       <c r="A16" s="9" t="s">
         <v>23</v>
       </c>
@@ -4236,20 +4265,20 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="39" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="42.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.765625" customWidth="1"/>
+    <col min="3" max="3" width="30.53515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="42.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" ht="28.3" x14ac:dyDescent="0.75">
       <c r="A2" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -4264,7 +4293,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:6" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A5" s="30" t="s">
         <v>0</v>
       </c>
@@ -4280,7 +4309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A6" s="30" t="s">
         <v>1</v>
       </c>
@@ -4293,7 +4322,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A7" s="30" t="s">
         <v>1</v>
       </c>
@@ -4308,7 +4337,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A8" s="30" t="s">
         <v>2</v>
       </c>
@@ -4323,7 +4352,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:6" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A9" s="30" t="s">
         <v>3</v>
       </c>
@@ -4340,7 +4369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A10" s="30" t="s">
         <v>4</v>
       </c>
@@ -4353,7 +4382,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:6" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A11" s="30" t="s">
         <v>5</v>
       </c>
@@ -4368,7 +4397,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:6" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A12" s="30" t="s">
         <v>6</v>
       </c>
@@ -4385,7 +4414,7 @@
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A13" s="30" t="s">
         <v>7</v>
       </c>
@@ -4398,7 +4427,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:6" ht="25.8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="26.15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="30" t="s">
         <v>8</v>
       </c>
@@ -4410,7 +4439,7 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A15" s="30" t="s">
         <v>9</v>
       </c>
@@ -4425,7 +4454,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A16" s="30" t="s">
         <v>10</v>
       </c>
@@ -4440,7 +4469,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="5:5" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="17" spans="5:5" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="E17" s="29">
         <f>SUM(COUNTIFS(B5:B16,{"Junior";"Pleno";"Senior"},
 C5:C16,"&gt;=4000"))</f>
@@ -4461,22 +4490,22 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="39" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="29.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.53515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.53515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="29.765625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" ht="28.3" x14ac:dyDescent="0.75">
       <c r="A2" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="23.15" x14ac:dyDescent="0.6">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -4491,7 +4520,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:7" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A5" s="30" t="s">
         <v>47</v>
       </c>
@@ -4507,7 +4536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A6" s="30" t="s">
         <v>1</v>
       </c>
@@ -4520,7 +4549,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:7" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A7" s="30" t="s">
         <v>48</v>
       </c>
@@ -4535,7 +4564,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:7" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A8" s="30" t="s">
         <v>2</v>
       </c>
@@ -4551,7 +4580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A9" s="30" t="s">
         <v>3</v>
       </c>
@@ -4564,7 +4593,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:7" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A10" s="30" t="s">
         <v>4</v>
       </c>
@@ -4579,7 +4608,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:7" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A11" s="30" t="s">
         <v>53</v>
       </c>
@@ -4595,7 +4624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="25.8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="26.15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="30" t="s">
         <v>50</v>
       </c>
@@ -4607,7 +4636,7 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A13" s="30" t="s">
         <v>49</v>
       </c>
@@ -4622,7 +4651,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A14" s="30" t="s">
         <v>8</v>
       </c>
@@ -4643,7 +4672,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:7" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A15" s="30" t="s">
         <v>9</v>
       </c>
@@ -4667,7 +4696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:7" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A16" s="30" t="s">
         <v>10</v>
       </c>
@@ -4691,7 +4720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="5:7" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="17" spans="5:7" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="E17" s="33">
         <v>30</v>
       </c>
@@ -4719,31 +4748,31 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.53515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.23046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.69140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.07421875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.23046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.3046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.53515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.23046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.84375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.23046875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.84375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" s="35" t="s">
         <v>90</v>
       </c>
@@ -4751,7 +4780,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" s="35" t="s">
         <v>89</v>
       </c>
@@ -4759,7 +4788,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" s="35" t="s">
         <v>103</v>
       </c>
@@ -4767,7 +4796,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" s="35" t="s">
         <v>100</v>
       </c>
@@ -4817,275 +4846,186 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37">
+      <c r="O6">
         <v>1</v>
       </c>
-      <c r="P6" s="37">
+      <c r="P6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37">
+      <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37">
+      <c r="L7">
         <v>2</v>
       </c>
-      <c r="M7" s="37">
+      <c r="M7">
         <v>2</v>
       </c>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37">
+      <c r="P7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8">
         <v>4</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37">
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37">
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37">
+      <c r="P8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37">
+      <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37">
+      <c r="P9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37">
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37">
+      <c r="G10">
         <v>2</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37">
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37">
+      <c r="N10">
         <v>1</v>
       </c>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37">
+      <c r="P10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37">
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37">
+      <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37">
+      <c r="J11">
         <v>1</v>
       </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37">
+      <c r="P11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37">
+      <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37">
+      <c r="P12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37">
+      <c r="L13">
         <v>1</v>
       </c>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37">
+      <c r="N13">
         <v>1</v>
       </c>
-      <c r="O13" s="37">
+      <c r="O13">
         <v>1</v>
       </c>
-      <c r="P13" s="37">
+      <c r="P13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14">
         <v>4</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14">
         <v>2</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14">
         <v>4</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14">
         <v>3</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14">
         <v>2</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14">
         <v>1</v>
       </c>
-      <c r="K14" s="37">
+      <c r="K14">
         <v>2</v>
       </c>
-      <c r="L14" s="37">
+      <c r="L14">
         <v>3</v>
       </c>
-      <c r="M14" s="37">
+      <c r="M14">
         <v>2</v>
       </c>
-      <c r="N14" s="37">
+      <c r="N14">
         <v>2</v>
       </c>
-      <c r="O14" s="37">
+      <c r="O14">
         <v>2</v>
       </c>
-      <c r="P14" s="37">
+      <c r="P14">
         <v>31</v>
       </c>
     </row>
@@ -5102,42 +5042,42 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="37.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="37.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.5546875" customWidth="1"/>
+    <col min="1" max="1" width="37.84375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.84375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.84375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.84375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.07421875" customWidth="1"/>
+    <col min="7" max="7" width="23.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.53515625" customWidth="1"/>
     <col min="9" max="26" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:26" ht="23.15" x14ac:dyDescent="0.6">
       <c r="H2" s="28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:26" ht="28.3" x14ac:dyDescent="0.75">
       <c r="A3" s="16"/>
       <c r="B3" s="16" t="s">
         <v>41</v>
       </c>
       <c r="H3" s="28"/>
     </row>
-    <row r="4" spans="1:26" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:26" ht="28.3" x14ac:dyDescent="0.75">
       <c r="A4" s="16"/>
       <c r="H4" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" ht="23.15" x14ac:dyDescent="0.6">
       <c r="H5" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>58</v>
       </c>
@@ -5156,7 +5096,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A7" s="20" t="s">
         <v>61</v>
       </c>
@@ -5174,7 +5114,7 @@
       </c>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A8" s="20" t="s">
         <v>63</v>
       </c>
@@ -5248,7 +5188,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:26" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A9" s="20" t="s">
         <v>82</v>
       </c>
@@ -5416,7 +5356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:26" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A10" s="20" t="s">
         <v>83</v>
       </c>
@@ -5584,7 +5524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:26" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A11" s="20" t="s">
         <v>84</v>
       </c>
@@ -5752,7 +5692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:26" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A12" s="20" t="s">
         <v>85</v>
       </c>
@@ -5920,7 +5860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:26" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A13" s="20" t="s">
         <v>61</v>
       </c>
@@ -6088,7 +6028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:26" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A14" s="20" t="s">
         <v>63</v>
       </c>
@@ -6256,7 +6196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:26" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A15" s="20" t="s">
         <v>82</v>
       </c>
@@ -6424,7 +6364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:26" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A16" s="20" t="s">
         <v>83</v>
       </c>
@@ -6592,7 +6532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A17" s="20" t="s">
         <v>61</v>
       </c>
@@ -6688,7 +6628,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A18" s="20" t="s">
         <v>63</v>
       </c>
@@ -6705,7 +6645,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A19" s="20" t="s">
         <v>82</v>
       </c>
@@ -6722,7 +6662,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A20" s="20" t="s">
         <v>83</v>
       </c>
@@ -6739,7 +6679,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A21" s="20" t="s">
         <v>63</v>
       </c>
@@ -6756,7 +6696,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A22" s="20" t="s">
         <v>87</v>
       </c>
@@ -6773,7 +6713,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A23" s="20" t="s">
         <v>86</v>
       </c>
@@ -6790,7 +6730,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A24" s="20" t="s">
         <v>63</v>
       </c>
@@ -6807,7 +6747,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A25" s="20" t="s">
         <v>82</v>
       </c>
@@ -6824,7 +6764,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A26" s="20" t="s">
         <v>61</v>
       </c>
@@ -6841,7 +6781,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A27" s="20" t="s">
         <v>85</v>
       </c>
@@ -6858,7 +6798,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A28" s="20" t="s">
         <v>61</v>
       </c>
@@ -6875,7 +6815,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A29" s="20" t="s">
         <v>63</v>
       </c>
@@ -6892,7 +6832,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A30" s="20" t="s">
         <v>82</v>
       </c>
@@ -6909,7 +6849,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A31" s="20" t="s">
         <v>83</v>
       </c>
@@ -6926,7 +6866,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A32" s="20" t="s">
         <v>63</v>
       </c>
@@ -6943,7 +6883,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A33" s="20" t="s">
         <v>82</v>
       </c>
@@ -6960,7 +6900,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A34" s="20" t="s">
         <v>83</v>
       </c>
@@ -6977,7 +6917,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A35" s="20" t="s">
         <v>87</v>
       </c>
@@ -6994,7 +6934,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A36" s="20" t="s">
         <v>87</v>
       </c>
@@ -7011,7 +6951,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A37" s="20" t="s">
         <v>86</v>
       </c>
@@ -7028,7 +6968,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A38" s="20" t="s">
         <v>86</v>
       </c>
@@ -7045,7 +6985,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A39" s="20" t="s">
         <v>85</v>
       </c>
@@ -7062,7 +7002,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A40" s="20" t="s">
         <v>85</v>
       </c>
@@ -7079,7 +7019,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A41" s="20" t="s">
         <v>85</v>
       </c>
@@ -7096,7 +7036,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A42" s="20" t="s">
         <v>84</v>
       </c>
@@ -7113,7 +7053,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A43" s="20" t="s">
         <v>84</v>
       </c>
@@ -7130,7 +7070,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A44" s="20" t="s">
         <v>61</v>
       </c>
@@ -7147,7 +7087,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A45" s="20" t="s">
         <v>63</v>
       </c>
@@ -7164,7 +7104,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A46" s="20" t="s">
         <v>82</v>
       </c>
@@ -7181,7 +7121,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A47" s="20" t="s">
         <v>83</v>
       </c>
@@ -7198,7 +7138,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A48" s="20" t="s">
         <v>84</v>
       </c>
@@ -7215,7 +7155,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A49" s="20" t="s">
         <v>85</v>
       </c>
@@ -7232,7 +7172,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A50" s="20" t="s">
         <v>61</v>
       </c>
@@ -7249,7 +7189,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A51" s="20" t="s">
         <v>63</v>
       </c>
@@ -7266,7 +7206,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A52" s="20" t="s">
         <v>82</v>
       </c>
@@ -7283,7 +7223,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A53" s="20" t="s">
         <v>83</v>
       </c>
@@ -7300,7 +7240,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A54" s="20" t="s">
         <v>61</v>
       </c>
@@ -7317,7 +7257,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A55" s="20" t="s">
         <v>63</v>
       </c>
@@ -7334,7 +7274,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A56" s="20" t="s">
         <v>82</v>
       </c>
@@ -7351,7 +7291,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A57" s="20" t="s">
         <v>83</v>
       </c>
@@ -7368,7 +7308,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A58" s="20" t="s">
         <v>63</v>
       </c>
@@ -7385,7 +7325,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A59" s="20" t="s">
         <v>87</v>
       </c>
@@ -7402,7 +7342,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A60" s="20" t="s">
         <v>86</v>
       </c>
@@ -7419,7 +7359,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A61" s="20" t="s">
         <v>63</v>
       </c>
@@ -7436,7 +7376,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A62" s="20" t="s">
         <v>82</v>
       </c>
@@ -7453,7 +7393,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A63" s="20" t="s">
         <v>61</v>
       </c>
@@ -7470,7 +7410,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A64" s="20" t="s">
         <v>85</v>
       </c>
@@ -7487,7 +7427,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A65" s="20" t="s">
         <v>61</v>
       </c>
@@ -7504,7 +7444,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A66" s="20" t="s">
         <v>63</v>
       </c>
@@ -7521,7 +7461,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A67" s="20" t="s">
         <v>82</v>
       </c>
@@ -7538,7 +7478,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A68" s="20" t="s">
         <v>83</v>
       </c>
@@ -7555,7 +7495,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A69" s="20" t="s">
         <v>63</v>
       </c>
@@ -7572,7 +7512,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A70" s="20" t="s">
         <v>82</v>
       </c>
@@ -7589,7 +7529,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A71" s="20" t="s">
         <v>83</v>
       </c>
@@ -7606,7 +7546,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A72" s="20" t="s">
         <v>87</v>
       </c>
@@ -7623,7 +7563,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A73" s="20" t="s">
         <v>87</v>
       </c>
@@ -7640,7 +7580,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A74" s="20" t="s">
         <v>86</v>
       </c>
@@ -7657,7 +7597,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A75" s="20" t="s">
         <v>86</v>
       </c>
@@ -7674,7 +7614,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A76" s="20" t="s">
         <v>85</v>
       </c>
@@ -7691,7 +7631,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A77" s="20" t="s">
         <v>85</v>
       </c>
@@ -7708,7 +7648,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A78" s="20" t="s">
         <v>85</v>
       </c>
@@ -7725,7 +7665,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A79" s="20" t="s">
         <v>84</v>
       </c>
@@ -7742,7 +7682,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A80" s="20" t="s">
         <v>84</v>
       </c>
@@ -7769,25 +7709,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DD949A-3F76-4DE9-B64E-FCBBFD40F5DE}">
   <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="94" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="26" style="1" customWidth="1"/>
     <col min="2" max="2" width="39" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="29.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.53515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="29.765625" customWidth="1"/>
     <col min="6" max="6" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" ht="28.3" x14ac:dyDescent="0.75">
       <c r="A2" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="23.15" x14ac:dyDescent="0.6">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -7802,7 +7742,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:8" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A5" s="30" t="s">
         <v>13</v>
       </c>
@@ -7813,9 +7753,12 @@
         <v>23</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="29"/>
-    </row>
-    <row r="6" spans="1:8" ht="25.8" x14ac:dyDescent="0.45">
+      <c r="E5" s="29">
+        <f>COUNTIF(C:C,30)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A6" s="30" t="s">
         <v>14</v>
       </c>
@@ -7829,7 +7772,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:8" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A7" s="30" t="s">
         <v>14</v>
       </c>
@@ -7846,7 +7789,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:8" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:8" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A8" s="30"/>
       <c r="B8" s="30" t="s">
         <v>2</v>
@@ -7855,11 +7798,14 @@
         <v>26</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="29"/>
+      <c r="E8" s="29">
+        <f>COUNTIF(C:C,"&lt;30")</f>
+        <v>8</v>
+      </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:8" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A9" s="30" t="s">
         <v>16</v>
       </c>
@@ -7874,7 +7820,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:8" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A10" s="30" t="s">
         <v>17</v>
       </c>
@@ -7891,7 +7837,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:8" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:8" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A11" s="30" t="s">
         <v>18</v>
       </c>
@@ -7902,12 +7848,15 @@
         <v>23</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="29"/>
+      <c r="E11" s="29">
+        <f>COUNTIF(C5:C16,"&lt;&gt;30")</f>
+        <v>9</v>
+      </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A12" s="30"/>
       <c r="B12" s="30" t="s">
         <v>6</v>
@@ -7921,7 +7870,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A13" s="30" t="s">
         <v>20</v>
       </c>
@@ -7939,7 +7888,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:8" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A14" s="30" t="s">
         <v>21</v>
       </c>
@@ -7950,12 +7899,15 @@
         <v>30</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="29"/>
+      <c r="E14" s="29">
+        <f>COUNTIF(A5:C16,"")</f>
+        <v>2</v>
+      </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A15" s="30" t="s">
         <v>22</v>
       </c>
@@ -7971,7 +7923,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A16" s="30" t="s">
         <v>23</v>
       </c>
@@ -7987,8 +7939,11 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="5:5" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="E17" s="29"/>
+    <row r="17" spans="5:5" ht="33.450000000000003" x14ac:dyDescent="0.85">
+      <c r="E17" s="29">
+        <f>COUNTIF(A5:A16,"&lt;&gt;"&amp;"")</f>
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8000,26 +7955,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC75CB46-7ACA-4539-93A4-25CF501A22E4}">
   <dimension ref="A2:I16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="26" style="1" customWidth="1"/>
     <col min="2" max="2" width="39" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="29.77734375" customWidth="1"/>
+    <col min="3" max="3" width="25.23046875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="18.53515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="29.765625" customWidth="1"/>
     <col min="7" max="7" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="28.3" x14ac:dyDescent="0.75">
       <c r="A2" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="23.15" x14ac:dyDescent="0.6">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -8037,7 +7992,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:9" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -8051,9 +8006,12 @@
         <v>23</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="29"/>
-    </row>
-    <row r="6" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F5" s="29">
+        <f>COUNTIFS(D5:D16,"&gt;=26",D5:D16,"&lt;=30")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="23.15" x14ac:dyDescent="0.6">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -8070,7 +8028,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="23.15" x14ac:dyDescent="0.6">
       <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
@@ -8090,7 +8048,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:9" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -8104,11 +8062,14 @@
         <v>26</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="29"/>
+      <c r="F8" s="29">
+        <f>COUNTIFS(D5:D16,23,C5:C16,"&gt;01/01/2015")</f>
+        <v>4</v>
+      </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="23.15" x14ac:dyDescent="0.6">
       <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
@@ -8126,7 +8087,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="23.15" x14ac:dyDescent="0.6">
       <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
@@ -8146,7 +8107,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:9" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
@@ -8160,12 +8121,15 @@
         <v>23</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="29"/>
+      <c r="F11" s="29">
+        <f>COUNTIFS(C5:C16,"&gt;=01/01/2018",C5:C16,"&lt;=31/12/2020")</f>
+        <v>3</v>
+      </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="23.15" x14ac:dyDescent="0.6">
       <c r="A12" s="9" t="s">
         <v>19</v>
       </c>
@@ -8184,7 +8148,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="23.15" x14ac:dyDescent="0.6">
       <c r="A13" s="9" t="s">
         <v>20</v>
       </c>
@@ -8203,7 +8167,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="23.15" x14ac:dyDescent="0.6">
       <c r="A14" s="9" t="s">
         <v>21</v>
       </c>
@@ -8222,7 +8186,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="23.15" x14ac:dyDescent="0.6">
       <c r="A15" s="9" t="s">
         <v>22</v>
       </c>
@@ -8241,7 +8205,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="23.15" x14ac:dyDescent="0.6">
       <c r="A16" s="9" t="s">
         <v>23</v>
       </c>
@@ -8269,23 +8233,23 @@
   <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="39" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="42.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.765625" customWidth="1"/>
+    <col min="3" max="3" width="30.53515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="42.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" ht="28.3" x14ac:dyDescent="0.75">
       <c r="A2" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -8300,7 +8264,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:6" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A5" s="30" t="s">
         <v>0</v>
       </c>
@@ -8311,9 +8275,12 @@
         <v>2800</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="29"/>
-    </row>
-    <row r="6" spans="1:6" ht="25.8" x14ac:dyDescent="0.45">
+      <c r="E5" s="29">
+        <f>COUNTIF(B5:B16,"Junior")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A6" s="30" t="s">
         <v>1</v>
       </c>
@@ -8326,7 +8293,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A7" s="30" t="s">
         <v>1</v>
       </c>
@@ -8341,7 +8308,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A8" s="30" t="s">
         <v>2</v>
       </c>
@@ -8356,7 +8323,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:6" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A9" s="30" t="s">
         <v>3</v>
       </c>
@@ -8367,9 +8334,12 @@
         <v>2000</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="29"/>
-    </row>
-    <row r="10" spans="1:6" ht="25.8" x14ac:dyDescent="0.45">
+      <c r="E9" s="29">
+        <f>COUNTIFS(C5:C16,"2000",B5:B16,"Junior")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A10" s="30" t="s">
         <v>4</v>
       </c>
@@ -8382,7 +8352,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:6" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="92.6" x14ac:dyDescent="0.6">
       <c r="A11" s="30" t="s">
         <v>5</v>
       </c>
@@ -8393,11 +8363,11 @@
         <v>2000</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="37" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:6" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="A12" s="30" t="s">
         <v>6</v>
       </c>
@@ -8408,10 +8378,13 @@
         <v>5000</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="29"/>
+      <c r="E12" s="29">
+        <f>SUM(COUNTIFS(B5:B16,{"Junior";"Pleno"}))</f>
+        <v>5</v>
+      </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A13" s="30" t="s">
         <v>7</v>
       </c>
@@ -8424,7 +8397,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:6" ht="25.8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="26.15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="30" t="s">
         <v>8</v>
       </c>
@@ -8436,7 +8409,7 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A15" s="30" t="s">
         <v>9</v>
       </c>
@@ -8451,7 +8424,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" ht="26.15" x14ac:dyDescent="0.6">
       <c r="A16" s="30" t="s">
         <v>10</v>
       </c>
@@ -8466,8 +8439,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="5:5" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="E17" s="29"/>
+    <row r="17" spans="5:5" ht="33.450000000000003" x14ac:dyDescent="0.85">
+      <c r="E17" s="29">
+        <f>SUM(COUNTIFS(C5:C16,"&gt;=4000",B5:B16,{"Junior";"Pleno";"Senior"}))</f>
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8476,6 +8452,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7FBF0B9CEACA34A981A7F46EA19F3F9" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4f484b9883a95de778a6ce333a5c9fbe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac" xmlns:ns4="45cbc027-4fdb-4325-ba4c-14e20f088a7f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="918a0d7af8be30ff2596a9f3dd2488fd" ns3:_="" ns4:_="">
     <xsd:import namespace="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac"/>
@@ -8672,36 +8663,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DF8C6D0-BDB8-4D22-A8A4-DEAEBC30EDA1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8981F02B-5252-40A8-85C9-6E028D5DC5D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac"/>
-    <ds:schemaRef ds:uri="45cbc027-4fdb-4325-ba4c-14e20f088a7f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8724,9 +8689,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8981F02B-5252-40A8-85C9-6E028D5DC5D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DF8C6D0-BDB8-4D22-A8A4-DEAEBC30EDA1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac"/>
+    <ds:schemaRef ds:uri="45cbc027-4fdb-4325-ba4c-14e20f088a7f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Excel/043_CONT.SE.xlsx
+++ b/Excel/043_CONT.SE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F97BC26-53E3-4BD8-960F-C3DAF92551B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFC241F-5502-4F9A-99FB-912FB9BA2EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="809" firstSheet="5" activeTab="9" xr2:uid="{2E65B82F-5866-47B8-BB74-66991D6C79DA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="809" firstSheet="4" activeTab="10" xr2:uid="{2E65B82F-5866-47B8-BB74-66991D6C79DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Professor exemplo 1" sheetId="5" r:id="rId1"/>
@@ -2054,7 +2054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7ADD713-B3FA-449E-86BA-B800A6646892}">
   <dimension ref="A2:G17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="94" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="94" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -2309,8 +2309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00C7099-9F3B-4E2B-B141-90AED8AF4F1B}">
   <dimension ref="A2:Z80"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2487,27 +2487,85 @@
       <c r="G9" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
+      <c r="H9" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},
+$A$7:$A$80,$G9,
+$B$7:$B$80,H$8,
+$D$7:$D$80,"&gt;=01/02/2023",
+$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G9,$B$7:$B$80,I$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G9,$B$7:$B$80,J$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G9,$B$7:$B$80,K$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G9,$B$7:$B$80,L$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G9,$B$7:$B$80,M$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G9,$B$7:$B$80,N$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G9,$B$7:$B$80,O$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G9,$B$7:$B$80,P$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G9,$B$7:$B$80,Q$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G9,$B$7:$B$80,R$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G9,$B$7:$B$80,S$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G9,$B$7:$B$80,T$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G9,$B$7:$B$80,U$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G9,$B$7:$B$80,V$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G9,$B$7:$B$80,W$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G9,$B$7:$B$80,X$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G9,$B$7:$B$80,Y$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>1</v>
+      </c>
       <c r="Z9" s="27">
         <f>SUM(H9:Y9)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
@@ -2529,27 +2587,81 @@
       <c r="G10" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
+      <c r="H10" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G10,$B$7:$B$80,H$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G10,$B$7:$B$80,I$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G10,$B$7:$B$80,J$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G10,$B$7:$B$80,K$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G10,$B$7:$B$80,L$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G10,$B$7:$B$80,M$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G10,$B$7:$B$80,N$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G10,$B$7:$B$80,O$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G10,$B$7:$B$80,P$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G10,$B$7:$B$80,Q$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G10,$B$7:$B$80,R$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G10,$B$7:$B$80,S$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G10,$B$7:$B$80,T$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>2</v>
+      </c>
+      <c r="U10" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G10,$B$7:$B$80,U$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G10,$B$7:$B$80,V$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G10,$B$7:$B$80,W$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>2</v>
+      </c>
+      <c r="X10" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G10,$B$7:$B$80,X$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G10,$B$7:$B$80,Y$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
       <c r="Z10" s="27">
         <f t="shared" ref="Z10:Z16" si="0">SUM(H10:Y10)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
@@ -2571,27 +2683,81 @@
       <c r="G11" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
+      <c r="H11" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G11,$B$7:$B$80,H$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G11,$B$7:$B$80,I$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G11,$B$7:$B$80,J$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G11,$B$7:$B$80,K$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>4</v>
+      </c>
+      <c r="L11" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G11,$B$7:$B$80,L$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G11,$B$7:$B$80,M$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G11,$B$7:$B$80,N$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>1</v>
+      </c>
+      <c r="O11" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G11,$B$7:$B$80,O$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G11,$B$7:$B$80,P$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G11,$B$7:$B$80,Q$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>1</v>
+      </c>
+      <c r="R11" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G11,$B$7:$B$80,R$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G11,$B$7:$B$80,S$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G11,$B$7:$B$80,T$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G11,$B$7:$B$80,U$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G11,$B$7:$B$80,V$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G11,$B$7:$B$80,W$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G11,$B$7:$B$80,X$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G11,$B$7:$B$80,Y$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
       <c r="Z11" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
@@ -2613,27 +2779,81 @@
       <c r="G12" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
+      <c r="H12" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G12,$B$7:$B$80,H$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G12,$B$7:$B$80,I$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G12,$B$7:$B$80,J$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G12,$B$7:$B$80,K$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G12,$B$7:$B$80,L$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G12,$B$7:$B$80,M$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>1</v>
+      </c>
+      <c r="N12" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G12,$B$7:$B$80,N$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G12,$B$7:$B$80,O$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G12,$B$7:$B$80,P$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G12,$B$7:$B$80,Q$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G12,$B$7:$B$80,R$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G12,$B$7:$B$80,S$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G12,$B$7:$B$80,T$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G12,$B$7:$B$80,U$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G12,$B$7:$B$80,V$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G12,$B$7:$B$80,W$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G12,$B$7:$B$80,X$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G12,$B$7:$B$80,Y$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
       <c r="Z12" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
@@ -2655,27 +2875,81 @@
       <c r="G13" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
+      <c r="H13" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G13,$B$7:$B$80,H$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G13,$B$7:$B$80,I$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G13,$B$7:$B$80,J$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G13,$B$7:$B$80,K$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G13,$B$7:$B$80,L$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>1</v>
+      </c>
+      <c r="M13" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G13,$B$7:$B$80,M$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G13,$B$7:$B$80,N$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G13,$B$7:$B$80,O$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>2</v>
+      </c>
+      <c r="P13" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G13,$B$7:$B$80,P$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G13,$B$7:$B$80,Q$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G13,$B$7:$B$80,R$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G13,$B$7:$B$80,S$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>2</v>
+      </c>
+      <c r="T13" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G13,$B$7:$B$80,T$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G13,$B$7:$B$80,U$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G13,$B$7:$B$80,V$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G13,$B$7:$B$80,W$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G13,$B$7:$B$80,X$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>1</v>
+      </c>
+      <c r="Y13" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G13,$B$7:$B$80,Y$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
       <c r="Z13" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
@@ -2697,27 +2971,81 @@
       <c r="G14" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
+      <c r="H14" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G14,$B$7:$B$80,H$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G14,$B$7:$B$80,I$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G14,$B$7:$B$80,J$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G14,$B$7:$B$80,K$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G14,$B$7:$B$80,L$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G14,$B$7:$B$80,M$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>1</v>
+      </c>
+      <c r="N14" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G14,$B$7:$B$80,N$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>2</v>
+      </c>
+      <c r="O14" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G14,$B$7:$B$80,O$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G14,$B$7:$B$80,P$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G14,$B$7:$B$80,Q$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G14,$B$7:$B$80,R$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>1</v>
+      </c>
+      <c r="S14" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G14,$B$7:$B$80,S$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G14,$B$7:$B$80,T$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G14,$B$7:$B$80,U$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G14,$B$7:$B$80,V$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G14,$B$7:$B$80,W$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G14,$B$7:$B$80,X$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G14,$B$7:$B$80,Y$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
       <c r="Z14" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
@@ -2739,27 +3067,81 @@
       <c r="G15" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
+      <c r="H15" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G15,$B$7:$B$80,H$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G15,$B$7:$B$80,I$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G15,$B$7:$B$80,J$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G15,$B$7:$B$80,K$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G15,$B$7:$B$80,L$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G15,$B$7:$B$80,M$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G15,$B$7:$B$80,N$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>1</v>
+      </c>
+      <c r="O15" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G15,$B$7:$B$80,O$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>1</v>
+      </c>
+      <c r="P15" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G15,$B$7:$B$80,P$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G15,$B$7:$B$80,Q$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G15,$B$7:$B$80,R$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G15,$B$7:$B$80,S$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G15,$B$7:$B$80,T$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G15,$B$7:$B$80,U$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G15,$B$7:$B$80,V$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="W15" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G15,$B$7:$B$80,W$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G15,$B$7:$B$80,X$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G15,$B$7:$B$80,Y$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
       <c r="Z15" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
@@ -2781,27 +3163,81 @@
       <c r="G16" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
+      <c r="H16" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G16,$B$7:$B$80,H$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G16,$B$7:$B$80,I$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G16,$B$7:$B$80,J$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G16,$B$7:$B$80,K$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G16,$B$7:$B$80,L$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G16,$B$7:$B$80,M$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G16,$B$7:$B$80,N$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G16,$B$7:$B$80,O$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G16,$B$7:$B$80,P$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G16,$B$7:$B$80,Q$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G16,$B$7:$B$80,R$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G16,$B$7:$B$80,S$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G16,$B$7:$B$80,T$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>1</v>
+      </c>
+      <c r="U16" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G16,$B$7:$B$80,U$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G16,$B$7:$B$80,V$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G16,$B$7:$B$80,W$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G16,$B$7:$B$80,X$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>1</v>
+      </c>
+      <c r="Y16" s="26">
+        <f>SUM(COUNTIFS($C$7:$C$80,{"Pix";"Dinheiro"},$A$7:$A$80,$G16,$B$7:$B$80,Y$8,$D$7:$D$80,"&gt;=01/02/2023",$D$7:$D$80,"&lt;=31/03/2023"))</f>
+        <v>1</v>
+      </c>
       <c r="Z16" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
@@ -2825,7 +3261,7 @@
       </c>
       <c r="H17" s="27">
         <f>SUM(H9:H16)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="27">
         <f t="shared" ref="I17:Z17" si="1">SUM(I9:I16)</f>
@@ -2837,43 +3273,43 @@
       </c>
       <c r="K17" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L17" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O17" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P17" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q17" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T17" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U17" s="27">
         <f t="shared" si="1"/>
@@ -2885,19 +3321,19 @@
       </c>
       <c r="W17" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X17" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y17" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z17" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="26.15" x14ac:dyDescent="0.7">
@@ -8452,21 +8888,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7FBF0B9CEACA34A981A7F46EA19F3F9" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4f484b9883a95de778a6ce333a5c9fbe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac" xmlns:ns4="45cbc027-4fdb-4325-ba4c-14e20f088a7f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="918a0d7af8be30ff2596a9f3dd2488fd" ns3:_="" ns4:_="">
     <xsd:import namespace="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac"/>
@@ -8663,10 +9084,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8981F02B-5252-40A8-85C9-6E028D5DC5D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DF8C6D0-BDB8-4D22-A8A4-DEAEBC30EDA1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac"/>
+    <ds:schemaRef ds:uri="45cbc027-4fdb-4325-ba4c-14e20f088a7f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8689,20 +9136,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DF8C6D0-BDB8-4D22-A8A4-DEAEBC30EDA1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8981F02B-5252-40A8-85C9-6E028D5DC5D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac"/>
-    <ds:schemaRef ds:uri="45cbc027-4fdb-4325-ba4c-14e20f088a7f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>